--- a/biology/Neurosciences/Potentiel_d'inversion/Potentiel_d'inversion.xlsx
+++ b/biology/Neurosciences/Potentiel_d'inversion/Potentiel_d'inversion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Potentiel_d%27inversion</t>
+          <t>Potentiel_d'inversion</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le potentiel d'inversion pour un canal ionique, ou plus généralement pour un courant ionique, est la valeur du potentiel de membrane pour laquelle le flux ionique est nul. 
 Il s'agit en fait de la valeur de potentiel de membrane à laquelle une espèce ionique est en équilibre électro-osmotique. C’est-à-dire que pour ce potentiel de membrane, la force électrique due à la différence de potentiel de part et d'autre de la membrane et la force chimique due à la différence de concentration (ou force osmotique) sont égales et de sens opposés. La quantité d'ions entrant est égale à la quantité d'ions sortants.
